--- a/STRUKTUR SINGKAT.xlsx
+++ b/STRUKTUR SINGKAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Mitra\mitraaccounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181388F6-E9EA-48FF-BAB4-4F3353498AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF837E21-6DCB-4A6B-8CBC-5A173FBAD2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="233">
   <si>
     <t>acc_id</t>
   </si>
@@ -361,6 +361,369 @@
   </si>
   <si>
     <t>rack_name</t>
+  </si>
+  <si>
+    <t>sales_id</t>
+  </si>
+  <si>
+    <t>sales_code</t>
+  </si>
+  <si>
+    <t>sales_name</t>
+  </si>
+  <si>
+    <t>sales_address</t>
+  </si>
+  <si>
+    <t>sales_phone</t>
+  </si>
+  <si>
+    <t>sales_target</t>
+  </si>
+  <si>
+    <t>sales_note</t>
+  </si>
+  <si>
+    <t>sales_pass</t>
+  </si>
+  <si>
+    <t>sales_active</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>sp_margin</t>
+  </si>
+  <si>
+    <t>sp_margin_type</t>
+  </si>
+  <si>
+    <t>stock_price_sell</t>
+  </si>
+  <si>
+    <t>sp_default</t>
+  </si>
+  <si>
+    <t>sp_from</t>
+  </si>
+  <si>
+    <t>sp_to</t>
+  </si>
+  <si>
+    <t>SALES PRICE</t>
+  </si>
+  <si>
+    <t>SALES CATEGORY</t>
+  </si>
+  <si>
+    <t>spc_code</t>
+  </si>
+  <si>
+    <t>spc_name</t>
+  </si>
+  <si>
+    <t>spc_margin</t>
+  </si>
+  <si>
+    <t>spc_status</t>
+  </si>
+  <si>
+    <t>spc_default</t>
+  </si>
+  <si>
+    <t>spc_type</t>
+  </si>
+  <si>
+    <t>sub_category_id</t>
+  </si>
+  <si>
+    <t>stock_code</t>
+  </si>
+  <si>
+    <t>stock_code2</t>
+  </si>
+  <si>
+    <t>stock_barcode</t>
+  </si>
+  <si>
+    <t>stock_name</t>
+  </si>
+  <si>
+    <t>stock_type</t>
+  </si>
+  <si>
+    <t>stock_margin</t>
+  </si>
+  <si>
+    <t>stock_quantity</t>
+  </si>
+  <si>
+    <t>stock_hpp</t>
+  </si>
+  <si>
+    <t>stock_price_buy</t>
+  </si>
+  <si>
+    <t>stock_min</t>
+  </si>
+  <si>
+    <t>stock_max</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>stock_active</t>
+  </si>
+  <si>
+    <t>stock_mini</t>
+  </si>
+  <si>
+    <t>stock_maxi</t>
+  </si>
+  <si>
+    <t>gudang_id</t>
+  </si>
+  <si>
+    <t>unit2_id</t>
+  </si>
+  <si>
+    <t>unit3_id</t>
+  </si>
+  <si>
+    <t>unit2_conv</t>
+  </si>
+  <si>
+    <t>unit3_conv</t>
+  </si>
+  <si>
+    <t>stock_point</t>
+  </si>
+  <si>
+    <t>stock_online</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>stock_assembly_id</t>
+  </si>
+  <si>
+    <t>stock_parent_id</t>
+  </si>
+  <si>
+    <t>stock_assembly_price_buy</t>
+  </si>
+  <si>
+    <t>stock_assembly_amount</t>
+  </si>
+  <si>
+    <t>STOCK ASSEMBLY</t>
+  </si>
+  <si>
+    <t>supplier_code</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>supplier_addr</t>
+  </si>
+  <si>
+    <t>supplier_telp</t>
+  </si>
+  <si>
+    <t>supplier_cont</t>
+  </si>
+  <si>
+    <t>supplier_npwp</t>
+  </si>
+  <si>
+    <t>supplier_platform</t>
+  </si>
+  <si>
+    <t>supplier_discount</t>
+  </si>
+  <si>
+    <t>supplier_discount_type</t>
+  </si>
+  <si>
+    <t>supplier_due</t>
+  </si>
+  <si>
+    <t>supplier_active</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>th_number</t>
+  </si>
+  <si>
+    <t>th_type</t>
+  </si>
+  <si>
+    <t>th_payment_type</t>
+  </si>
+  <si>
+    <t>th_disc</t>
+  </si>
+  <si>
+    <t>th_disc_type</t>
+  </si>
+  <si>
+    <t>th_ppn</t>
+  </si>
+  <si>
+    <t>th_ppn_type</t>
+  </si>
+  <si>
+    <t>th_round</t>
+  </si>
+  <si>
+    <t>th_dp</t>
+  </si>
+  <si>
+    <t>th_total</t>
+  </si>
+  <si>
+    <t>th_date</t>
+  </si>
+  <si>
+    <t>th_note</t>
+  </si>
+  <si>
+    <t>th_status</t>
+  </si>
+  <si>
+    <t>th_dp_order</t>
+  </si>
+  <si>
+    <t>th_surcharge</t>
+  </si>
+  <si>
+    <t>th_surcharge_type</t>
+  </si>
+  <si>
+    <t>th_bank_num</t>
+  </si>
+  <si>
+    <t>th_tax_methode</t>
+  </si>
+  <si>
+    <t>th_so_id</t>
+  </si>
+  <si>
+    <t>th_ori_id</t>
+  </si>
+  <si>
+    <t>th_sales_omset</t>
+  </si>
+  <si>
+    <t>th_dp_other</t>
+  </si>
+  <si>
+    <t>th_delivery</t>
+  </si>
+  <si>
+    <t>th_post</t>
+  </si>
+  <si>
+    <t>th_rstatus</t>
+  </si>
+  <si>
+    <t>th_subsidi</t>
+  </si>
+  <si>
+    <t>th_cdate</t>
+  </si>
+  <si>
+    <t>th_retur_id</t>
+  </si>
+  <si>
+    <t>tj_tipe</t>
+  </si>
+  <si>
+    <t>th_point</t>
+  </si>
+  <si>
+    <t>th_point_ditukar</t>
+  </si>
+  <si>
+    <t>th_point_nominal</t>
+  </si>
+  <si>
+    <t>th_ol_number</t>
+  </si>
+  <si>
+    <t>TRANSACTION HISTORY</t>
+  </si>
+  <si>
+    <t>tid_id</t>
+  </si>
+  <si>
+    <t>tid_amount</t>
+  </si>
+  <si>
+    <t>tid_sell_hpp</t>
+  </si>
+  <si>
+    <t>TRANS ITEM DETAIL</t>
+  </si>
+  <si>
+    <t>tpr_id</t>
+  </si>
+  <si>
+    <t>tpr_number</t>
+  </si>
+  <si>
+    <t>tpr_type</t>
+  </si>
+  <si>
+    <t>tpr_date</t>
+  </si>
+  <si>
+    <t>tpr_note</t>
+  </si>
+  <si>
+    <t>tpr_status</t>
+  </si>
+  <si>
+    <t>tpr_detail</t>
+  </si>
+  <si>
+    <t>so_id</t>
+  </si>
+  <si>
+    <t>TRANS ITEM PAR</t>
+  </si>
+  <si>
+    <t>tr_id</t>
+  </si>
+  <si>
+    <t>tr_ori_id</t>
+  </si>
+  <si>
+    <t>prh_id</t>
+  </si>
+  <si>
+    <t>tr_total</t>
+  </si>
+  <si>
+    <t>TRANS RETUR</t>
+  </si>
+  <si>
+    <t>unit_code</t>
+  </si>
+  <si>
+    <t>unit_name</t>
+  </si>
+  <si>
+    <t>UNIT</t>
   </si>
 </sst>
 </file>
@@ -678,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1478,491 @@
         <v>111</v>
       </c>
     </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" t="s">
+        <v>145</v>
+      </c>
+      <c r="M38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>150</v>
+      </c>
+      <c r="R38" t="s">
+        <v>151</v>
+      </c>
+      <c r="S38" t="s">
+        <v>152</v>
+      </c>
+      <c r="T38" t="s">
+        <v>153</v>
+      </c>
+      <c r="U38" t="s">
+        <v>154</v>
+      </c>
+      <c r="V38" t="s">
+        <v>155</v>
+      </c>
+      <c r="W38" t="s">
+        <v>156</v>
+      </c>
+      <c r="X38" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" t="s">
+        <v>175</v>
+      </c>
+      <c r="L42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" t="s">
+        <v>187</v>
+      </c>
+      <c r="O44" t="s">
+        <v>188</v>
+      </c>
+      <c r="P44" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>190</v>
+      </c>
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>54</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s">
+        <v>191</v>
+      </c>
+      <c r="V44" t="s">
+        <v>192</v>
+      </c>
+      <c r="W44" t="s">
+        <v>193</v>
+      </c>
+      <c r="X44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
